--- a/Extensive/HomeResult.xlsx
+++ b/Extensive/HomeResult.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
   <si>
     <t>Category</t>
   </si>
@@ -149,207 +149,201 @@
     <t>Okay! Locking your doors.</t>
   </si>
   <si>
+    <t>[{u'category': u'home', u'action_type': u'lock home doors'}]</t>
+  </si>
+  <si>
     <t>unlock home doors</t>
   </si>
   <si>
+    <t>Okay! Unlocking your doors.</t>
+  </si>
+  <si>
     <t>[{u'category': u'home', u'action_type': u'unlock home doors'}]</t>
   </si>
   <si>
+    <t>close home doors</t>
+  </si>
+  <si>
+    <t>open home doors</t>
+  </si>
+  <si>
+    <t>lock house doors</t>
+  </si>
+  <si>
+    <t>unlock house doors</t>
+  </si>
+  <si>
+    <t>close house doors</t>
+  </si>
+  <si>
+    <t>open house doors</t>
+  </si>
+  <si>
+    <t>say home door status</t>
+  </si>
+  <si>
+    <t>are my home doors locked</t>
+  </si>
+  <si>
+    <t>Home doors are unlocked.</t>
+  </si>
+  <si>
+    <t>[{u'category': u'home', u'text': u'Home doors are unlocked.', u'action_type': u'say home door status'}]</t>
+  </si>
+  <si>
+    <t>are my doors locked</t>
+  </si>
+  <si>
+    <t>did I leave the house unlocked</t>
+  </si>
+  <si>
+    <t>did I lock the doors</t>
+  </si>
+  <si>
+    <t>home lights on</t>
+  </si>
+  <si>
+    <t>prepare home for arrival</t>
+  </si>
+  <si>
+    <t>Alright, setting thermostat to home and turning on your lights.</t>
+  </si>
+  <si>
+    <t>[{u'category': u'home', u'action_type': u'home lights on'}, {u'category': u'home', u'action_type': u'thermostat home'}]</t>
+  </si>
+  <si>
+    <t>precondition home</t>
+  </si>
+  <si>
+    <t>Alright, setting your thermostat to home.</t>
+  </si>
+  <si>
+    <t>set home to away</t>
+  </si>
+  <si>
+    <t>Alright, I've turned your lights off, closed the garage door, enabled your home security, and set your thermostat to away.</t>
+  </si>
+  <si>
+    <t>[{u'category': u'home', u'action_type': u'close garage door'}, {u'category': u'home', u'action_type': u'arm home security'}, {u'category': u'home', u'action_type': u'home lights off'}, {u'category': u'home', u'action_type': u'thermostat away'}]</t>
+  </si>
+  <si>
+    <t>set home to here</t>
+  </si>
+  <si>
+    <t>Opening your garage door and disabling your home security.</t>
+  </si>
+  <si>
+    <t>[{u'category': u'home', u'action_type': u'open garage door'}, {u'category': u'home', u'action_type': u'disarm home security'}]</t>
+  </si>
+  <si>
+    <t>I'm home</t>
+  </si>
+  <si>
+    <t>say home status</t>
+  </si>
+  <si>
+    <t>check home status</t>
+  </si>
+  <si>
+    <t>Your home security is disarmed, garage door is open, and your home lights are off.</t>
+  </si>
+  <si>
+    <t>[{u'category': u'home', u'text': u'Your home security is disarmed, garage door is open, and your home lights are off.', u'action_type': u'say home status'}]</t>
+  </si>
+  <si>
+    <t>how is my home doing</t>
+  </si>
+  <si>
+    <t>how are things at home</t>
+  </si>
+  <si>
+    <t>how is my house</t>
+  </si>
+  <si>
+    <t>Okay! Turning on lights.</t>
+  </si>
+  <si>
+    <t>[{u'category': u'home', u'action_type': u'home lights on'}]</t>
+  </si>
+  <si>
+    <t>home lights off</t>
+  </si>
+  <si>
+    <t>Okay! Turning off lights.</t>
+  </si>
+  <si>
+    <t>[{u'category': u'home', u'action_type': u'home lights off'}]</t>
+  </si>
+  <si>
+    <t>say home lights status</t>
+  </si>
+  <si>
+    <t>did I leave my home lights on</t>
+  </si>
+  <si>
+    <t>Home lights are off.</t>
+  </si>
+  <si>
+    <t>[{u'category': u'home', u'text': u'Home lights are off.', u'action_type': u'say home lights status'}]</t>
+  </si>
+  <si>
+    <t>are my home lights on</t>
+  </si>
+  <si>
+    <t>turn my home lights on</t>
+  </si>
+  <si>
+    <t>turn my home lights off</t>
+  </si>
+  <si>
+    <t>arm home security</t>
+  </si>
+  <si>
+    <t>turn on home security system</t>
+  </si>
+  <si>
+    <t>Okay! Turning on home security.</t>
+  </si>
+  <si>
+    <t>[{u'category': u'home', u'action_type': u'arm home security'}]</t>
+  </si>
+  <si>
+    <t>disarm home security</t>
+  </si>
+  <si>
+    <t>turn off home security system</t>
+  </si>
+  <si>
+    <t>Okay! Turning off home security.</t>
+  </si>
+  <si>
+    <t>[{u'category': u'home', u'action_type': u'disarm home security'}]</t>
+  </si>
+  <si>
+    <t>secure my home</t>
+  </si>
+  <si>
+    <t>secure the house</t>
+  </si>
+  <si>
+    <t>disarm the home security</t>
+  </si>
+  <si>
+    <t>arm the home security</t>
+  </si>
+  <si>
+    <t>enable my home security</t>
+  </si>
+  <si>
+    <t>disable my home security</t>
+  </si>
+  <si>
+    <t>engage my home security</t>
+  </si>
+  <si>
     <t>Action type mismatch</t>
   </si>
   <si>
-    <t>Okay! Unlocking your doors.</t>
-  </si>
-  <si>
-    <t>[{u'category': u'home', u'action_type': u'lock home doors'}]</t>
-  </si>
-  <si>
-    <t>close home doors</t>
-  </si>
-  <si>
-    <t>open home doors</t>
-  </si>
-  <si>
-    <t>lock house doors</t>
-  </si>
-  <si>
-    <t>unlock house doors</t>
-  </si>
-  <si>
-    <t>close house doors</t>
-  </si>
-  <si>
-    <t>unlick home doors</t>
-  </si>
-  <si>
-    <t>open house doors</t>
-  </si>
-  <si>
-    <t>say home door status</t>
-  </si>
-  <si>
-    <t>are my home doors locked</t>
-  </si>
-  <si>
-    <t>Nothing.</t>
-  </si>
-  <si>
-    <t>Missing Action</t>
-  </si>
-  <si>
-    <t>are my doors locked</t>
-  </si>
-  <si>
-    <t>did I leave the house unlocked</t>
-  </si>
-  <si>
-    <t>did I lock the doors</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>prepare home for arrival</t>
-  </si>
-  <si>
-    <t>Alright, I've turned your lights on, opened the garage door, and disabled your home security.</t>
-  </si>
-  <si>
-    <t>home lights on</t>
-  </si>
-  <si>
-    <t>[{u'category': u'home', u'action_type': u'home lights on'}, {u'category': u'home', u'action_type': u'open garage door'}, {u'category': u'home', u'action_type': u'disarm home security'}]</t>
-  </si>
-  <si>
-    <t>precondition home</t>
-  </si>
-  <si>
-    <t>Alright, navigating you to home.</t>
-  </si>
-  <si>
-    <t>navigate</t>
-  </si>
-  <si>
-    <t>[{u'category': u'car', u'action_type': u'navigate'}]</t>
-  </si>
-  <si>
-    <t>set home to away</t>
-  </si>
-  <si>
-    <t>Alright, I've turned your lights off, closed the garage door, and enabled your home security.</t>
-  </si>
-  <si>
-    <t>home lights off</t>
-  </si>
-  <si>
-    <t>[{u'category': u'home', u'action_type': u'home lights off'}, {u'category': u'home', u'action_type': u'close garage door'}, {u'category': u'home', u'action_type': u'arm home security'}]</t>
-  </si>
-  <si>
-    <t>set home to here</t>
-  </si>
-  <si>
-    <t>I understand that you're trying to turn up something, but I haven't learned how to do that yet.</t>
-  </si>
-  <si>
-    <t>I'm home</t>
-  </si>
-  <si>
-    <t>say home status</t>
-  </si>
-  <si>
-    <t>check home status</t>
-  </si>
-  <si>
-    <t>how is my home doing</t>
-  </si>
-  <si>
-    <t>how are things at home</t>
-  </si>
-  <si>
-    <t>how is my house</t>
-  </si>
-  <si>
-    <t>Home lights are off.</t>
-  </si>
-  <si>
-    <t>say home lights status</t>
-  </si>
-  <si>
-    <t>[{u'category': u'home', u'text': u'Home lights are off.', u'action_type': u'say home lights status'}]</t>
-  </si>
-  <si>
-    <t>Okay! Turning off lights.</t>
-  </si>
-  <si>
-    <t>[{u'category': u'home', u'action_type': u'home lights off'}]</t>
-  </si>
-  <si>
-    <t>did I leave my home lights on</t>
-  </si>
-  <si>
-    <t>are my home lights on</t>
-  </si>
-  <si>
-    <t>turn my home lights on</t>
-  </si>
-  <si>
-    <t>Okay! Turning on lights.</t>
-  </si>
-  <si>
-    <t>[{u'category': u'home', u'action_type': u'home lights on'}]</t>
-  </si>
-  <si>
-    <t>turn my home lights off</t>
-  </si>
-  <si>
-    <t>arm home security</t>
-  </si>
-  <si>
-    <t>turn on home security system</t>
-  </si>
-  <si>
-    <t>Okay! Turning on home security.</t>
-  </si>
-  <si>
-    <t>[{u'category': u'home', u'action_type': u'arm home security'}]</t>
-  </si>
-  <si>
-    <t>disarm home security</t>
-  </si>
-  <si>
-    <t>turn off home security system</t>
-  </si>
-  <si>
-    <t>Okay! Turning off home security.</t>
-  </si>
-  <si>
-    <t>[{u'category': u'home', u'action_type': u'disarm home security'}]</t>
-  </si>
-  <si>
-    <t>secure my home</t>
-  </si>
-  <si>
-    <t>I understand you want me to turn on something. You can say turn on the music.</t>
-  </si>
-  <si>
-    <t>secure the house</t>
-  </si>
-  <si>
-    <t>disarm the home security</t>
-  </si>
-  <si>
-    <t>arm the home security</t>
-  </si>
-  <si>
-    <t>enable my home security</t>
-  </si>
-  <si>
-    <t>disable my home security</t>
-  </si>
-  <si>
-    <t>engage my home security</t>
-  </si>
-  <si>
     <t>disengage my home security</t>
   </si>
   <si>
@@ -405,9 +399,6 @@
   </si>
   <si>
     <t>turn off irrigation</t>
-  </si>
-  <si>
-    <t>I understand you want me to turn off something. You can say turn off the wipers or switch off the AC.</t>
   </si>
 </sst>
 </file>
@@ -1058,455 +1049,443 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="2" t="s">
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="2" t="s">
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="2" t="s">
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="E23" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="F23" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="D24" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="E24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="D26" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="D27" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="D28" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="E28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="2" t="s">
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="D29" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="D30" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="2" t="s">
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="D31" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="2" t="s">
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="D32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="C33" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="D33" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="2" t="s">
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="D34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="D36" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="E37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" t="s">
         <v>82</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1514,19 +1493,19 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F38" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1534,19 +1513,19 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" t="s">
         <v>89</v>
-      </c>
-      <c r="D39" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" t="s">
-        <v>85</v>
-      </c>
-      <c r="F39" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1554,19 +1533,19 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
         <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1574,19 +1553,19 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
         <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E41" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F41" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1594,19 +1573,19 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1614,19 +1593,19 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" t="s">
         <v>95</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" t="s">
         <v>96</v>
-      </c>
-      <c r="D43" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43" t="s">
-        <v>95</v>
-      </c>
-      <c r="F43" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1634,53 +1613,59 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" t="s">
         <v>99</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" t="s">
         <v>100</v>
       </c>
-      <c r="D44" t="s">
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
         <v>101</v>
       </c>
-      <c r="E44" t="s">
-        <v>99</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="D45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="D46" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>59</v>
+      <c r="E46" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1688,19 +1673,19 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" t="s">
         <v>99</v>
       </c>
-      <c r="C47" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" t="s">
-        <v>101</v>
-      </c>
       <c r="E47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1708,19 +1693,19 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" t="s">
         <v>95</v>
       </c>
-      <c r="C48" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" t="s">
-        <v>97</v>
-      </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1728,19 +1713,19 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" t="s">
         <v>95</v>
       </c>
-      <c r="C49" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49" t="s">
-        <v>97</v>
-      </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1748,19 +1733,19 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" t="s">
         <v>99</v>
       </c>
-      <c r="C50" t="s">
-        <v>109</v>
-      </c>
-      <c r="D50" t="s">
-        <v>101</v>
-      </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1768,22 +1753,22 @@
         <v>5</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1791,19 +1776,19 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" t="s">
         <v>99</v>
       </c>
-      <c r="C52" t="s">
-        <v>111</v>
-      </c>
-      <c r="D52" t="s">
-        <v>101</v>
-      </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1811,16 +1796,22 @@
         <v>5</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1828,16 +1819,22 @@
         <v>5</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="D54" s="2" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1845,19 +1842,19 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" t="s">
+        <v>114</v>
+      </c>
+      <c r="E55" t="s">
+        <v>110</v>
+      </c>
+      <c r="F55" t="s">
         <v>115</v>
-      </c>
-      <c r="D55" t="s">
-        <v>116</v>
-      </c>
-      <c r="E55" t="s">
-        <v>112</v>
-      </c>
-      <c r="F55" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1865,19 +1862,19 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" t="s">
         <v>118</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
+        <v>116</v>
+      </c>
+      <c r="F56" t="s">
         <v>119</v>
-      </c>
-      <c r="D56" t="s">
-        <v>120</v>
-      </c>
-      <c r="E56" t="s">
-        <v>118</v>
-      </c>
-      <c r="F56" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1885,19 +1882,19 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" t="s">
         <v>122</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E57" t="s">
+        <v>120</v>
+      </c>
+      <c r="F57" t="s">
         <v>123</v>
-      </c>
-      <c r="D57" t="s">
-        <v>124</v>
-      </c>
-      <c r="E57" t="s">
-        <v>122</v>
-      </c>
-      <c r="F57" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1905,19 +1902,19 @@
         <v>5</v>
       </c>
       <c r="B58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" t="s">
         <v>118</v>
       </c>
-      <c r="C58" t="s">
-        <v>126</v>
-      </c>
-      <c r="D58" t="s">
-        <v>120</v>
-      </c>
       <c r="E58" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F58" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1925,53 +1922,59 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" t="s">
         <v>122</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
+        <v>120</v>
+      </c>
+      <c r="F59" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" t="s">
         <v>127</v>
       </c>
-      <c r="D59" t="s">
-        <v>124</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="D61" t="s">
         <v>122</v>
       </c>
-      <c r="F59" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>59</v>
+      <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
